--- a/docs/CareConnect-Quantity-1.xlsx
+++ b/docs/CareConnect-Quantity-1.xlsx
@@ -220,7 +220,7 @@
     <t>valueApproximation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ValueApproximation-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-ValueApproximation-1}
 </t>
   </si>
   <si>
